--- a/mappingdata.xlsx
+++ b/mappingdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sysmgr\git\20250417\copy-utils-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871632AD-F6BA-4C40-A12A-1AB3F1C76707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59FEC64-E7F2-42D0-A1F6-46436D282F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="57">
   <si>
     <t>className</t>
     <phoneticPr fontId="1"/>
@@ -220,6 +220,50 @@
   </si>
   <si>
     <t>ignoreColumn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uses</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.Sample2Dto2DomainConverter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample6.mapper.Sample6Dto2DomainMapper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Dto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Domain1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Domain2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample6.model.Sample6Domain3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -256,7 +300,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -414,19 +464,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -707,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -726,55 +777,59 @@
     <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="50" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.21875" style="1"/>
+    <col min="11" max="11" width="47.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="14.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -783,24 +838,25 @@
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -809,26 +865,29 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9" t="s">
+      <c r="K3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -837,24 +896,25 @@
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -863,24 +923,25 @@
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -889,26 +950,25 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -917,24 +977,25 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -943,24 +1004,25 @@
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -969,24 +1031,25 @@
       <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -995,87 +1058,501 @@
       <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>38</v>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>43</v>
+      <c r="C12" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9" t="s">
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>44</v>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="B25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/mappingdata.xlsx
+++ b/mappingdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\sysmgr\git\20250417\copy-utils-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59FEC64-E7F2-42D0-A1F6-46436D282F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA6EA3-2F72-429F-971A-322CD6A07E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
   <si>
     <t>className</t>
     <phoneticPr fontId="1"/>
@@ -265,13 +265,34 @@
   <si>
     <t>org.example.sample6.model.Sample6Domain3</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>org.example.sample7.mapper.Sample7Dto2DomainMapper</t>
+  </si>
+  <si>
+    <t>toDomain</t>
+  </si>
+  <si>
+    <t>org.example.sample7.model.Sample7Dto</t>
+  </si>
+  <si>
+    <t>org.example.sample7.model.Sample7Domain</t>
+  </si>
+  <si>
+    <t>sample3dtos</t>
+  </si>
+  <si>
+    <t>sample3domains</t>
+  </si>
+  <si>
+    <t>org.example.sample3.mapper.Sample3Dto2DomainMapper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +316,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -327,12 +362,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -355,132 +390,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{E31D7D5A-1D6E-427E-B50A-FEC705464713}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,78 +687,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.21875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="66.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="66.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="47.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="14.21875" style="1"/>
+    <col min="9" max="9" width="16.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="14.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -838,25 +767,25 @@
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -865,29 +794,29 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -896,25 +825,25 @@
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="7" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -923,25 +852,25 @@
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -950,25 +879,25 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="7" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -977,25 +906,25 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1004,25 +933,25 @@
       <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1031,25 +960,25 @@
       <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1058,55 +987,56 @@
       <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B12" s="7" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1115,49 +1045,50 @@
       <c r="G12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B14" s="7" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1166,98 +1097,100 @@
       <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B15" s="7" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="7" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B17" s="7" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="7" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1266,97 +1199,100 @@
       <c r="G18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B19" s="7" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B20" s="7" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B21" s="7" t="s">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1365,194 +1301,262 @@
       <c r="G22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B23" s="7" t="s">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B24" s="7" t="s">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="B25" s="7" t="s">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="b">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="1" t="b">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="b">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="b">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="b">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="1" t="b">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1567,7 +1571,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
